--- a/depozitiMoznosti.xlsx
+++ b/depozitiMoznosti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a6163994125100bd/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{C6CAF5ED-BE37-45BA-9BB4-424844EA8080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{185E0CAE-5F22-4B75-A353-7DF5E58C1E64}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{28E1CE81-CD1F-42E7-9552-B61761791F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1C4F3FE-2942-4FA9-9E99-F31626BC40D8}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="16">
   <si>
     <t>Банка</t>
   </si>
@@ -486,8 +486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,6 +496,7 @@
     <col min="2" max="2" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" customWidth="1"/>
     <col min="5" max="5" width="31.85546875" customWidth="1"/>
+    <col min="7" max="7" width="89" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -524,31 +525,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="126" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2500</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -569,9 +556,7 @@
       <c r="F3" s="1">
         <v>0.01</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="G3" s="1"/>
       <c r="H3" s="3" t="s">
         <v>10</v>
       </c>

--- a/depozitiMoznosti.xlsx
+++ b/depozitiMoznosti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a6163994125100bd/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{28E1CE81-CD1F-42E7-9552-B61761791F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1C4F3FE-2942-4FA9-9E99-F31626BC40D8}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{3E305387-EAC3-439F-B294-F2C64C6B8277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5329691-C92B-4FF3-B0B8-14D32D377DE2}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="17">
   <si>
     <t>Банка</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Минимален износ</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -487,7 +490,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,12 +533,22 @@
         <v>14</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="3"/>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
